--- a/sulamericana/datasets_sula/2_classificacao_por_jogo_quartas_sula.xlsx
+++ b/sulamericana/datasets_sula/2_classificacao_por_jogo_quartas_sula.xlsx
@@ -486,10 +486,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>105.02001953125</v>
+        <v>180.3798828125</v>
       </c>
       <c r="H2">
-        <v>82.10009765625</v>
+        <v>136.39013671875</v>
       </c>
       <c r="I2">
-        <v>22.919921875</v>
+        <v>43.98974609375</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -527,16 +527,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>82.10009765625</v>
+        <v>136.39013671875</v>
       </c>
       <c r="H3">
-        <v>105.02001953125</v>
+        <v>180.3798828125</v>
       </c>
       <c r="I3">
-        <v>-22.919921875</v>
+        <v>-43.98974609375</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -604,16 +604,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>81.2001953125</v>
+        <v>131.80029296875</v>
       </c>
       <c r="H2">
-        <v>68.990234375</v>
+        <v>128.190185546875</v>
       </c>
       <c r="I2">
-        <v>12.2099609375</v>
+        <v>3.610107421875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -627,10 +627,10 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.990234375</v>
+        <v>128.190185546875</v>
       </c>
       <c r="H3">
-        <v>81.2001953125</v>
+        <v>131.80029296875</v>
       </c>
       <c r="I3">
-        <v>-12.2099609375</v>
+        <v>-3.610107421875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>117.7998046875</v>
+        <v>187.56982421875</v>
       </c>
       <c r="H2">
-        <v>89.7998046875</v>
+        <v>160.77001953125</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>26.7998046875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -736,10 +736,10 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.7998046875</v>
+        <v>160.77001953125</v>
       </c>
       <c r="H3">
-        <v>117.7998046875</v>
+        <v>187.56982421875</v>
       </c>
       <c r="I3">
-        <v>-28</v>
+        <v>-26.7998046875</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -813,10 +813,10 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>98.5</v>
+        <v>178.85009765625</v>
       </c>
       <c r="H2">
-        <v>89.89990234375</v>
+        <v>151.159912109375</v>
       </c>
       <c r="I2">
-        <v>8.60009765625</v>
+        <v>27.690185546875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -854,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>89.89990234375</v>
+        <v>151.159912109375</v>
       </c>
       <c r="H3">
-        <v>98.5</v>
+        <v>178.85009765625</v>
       </c>
       <c r="I3">
-        <v>-8.60009765625</v>
+        <v>-27.690185546875</v>
       </c>
       <c r="J3">
         <v>2</v>
